--- a/data/fppe_data_rural.xlsx
+++ b/data/fppe_data_rural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E40B4A-DC55-2241-BFCC-1EEB48234E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C285AE-6DD0-B84D-B933-1780FC5C4AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{05FC8BEC-FF03-A74A-8B8A-09EA8FD10930}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="68">
   <si>
     <t>Prevalence</t>
   </si>
@@ -122,128 +122,131 @@
     <t>2019-21</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>JH</t>
-  </si>
-  <si>
-    <t>KA</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
     <t xml:space="preserve">* </t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>WB</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Dadra &amp; Nagar Haveli and Daman &amp; Diu</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Haryana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +265,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,18 +299,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,4857 +629,4906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADAADB3-E382-604A-B848-E5D5F4CF4C9A}">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4" t="s">
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4" t="s">
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="4"/>
+      <c r="AQ2" s="6"/>
     </row>
-    <row r="2" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5" t="s">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5" t="s">
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5" t="s">
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5" t="s">
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5" t="s">
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5" t="s">
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="5"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="AQ3" s="4"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1">
-        <v>55.5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="1">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.1000000000000014</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="1">
-        <v>84.862385321100902</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>87.443946188340803</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>79.326923076923066</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>69.72972972972974</v>
-      </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1">
-        <v>0.340173062232209</v>
-      </c>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1">
-        <v>0.55164145034562795</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>73.400000000000006</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
-        <v>63.9</v>
+        <v>55.5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
-        <v>9.5000000000000071</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
-        <v>44.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1">
         <v>0.3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O5" s="1">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U5" s="1">
-        <v>1.2000000000000028</v>
+        <v>1.1000000000000014</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W5" s="1">
-        <v>86.118598382749326</v>
+        <v>84.862385321100902</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="1">
-        <v>88.212180746561884</v>
+        <v>87.443946188340803</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA5" s="1">
-        <v>81.545064377682394</v>
+        <v>79.326923076923066</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="1">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE5" s="1">
-        <v>6.0000000000000009</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG5" s="1">
         <v>4.3</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI5" s="1">
-        <v>69.796557120500793</v>
+        <v>69.72972972972974</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1">
-        <v>0.34101372363999516</v>
+        <v>0.340173062232209</v>
       </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1">
-        <v>31</v>
+        <v>24.3</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1">
-        <v>80.5</v>
+        <v>61.5</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1">
-        <v>0.56925062529570425</v>
+        <v>0.55164145034562795</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
+      <c r="A6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>71.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
-        <v>71.099999999999994</v>
+        <v>63.9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
-        <v>0.10000000000000853</v>
+        <v>9.5000000000000071</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
-        <v>70.2</v>
+        <v>44.6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="1">
         <v>0.1</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1.2000000000000028</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W6" s="1">
-        <v>94.172185430463571</v>
+        <v>86.118598382749326</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y6" s="1">
-        <v>97.783933518005554</v>
+        <v>88.212180746561884</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.151515151514932</v>
+        <v>81.545064377682394</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC6" s="1">
-        <v>4.4000000000000004</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE6" s="1">
-        <v>1.6000000000000005</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG6" s="1">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI6" s="1">
-        <v>98.734177215189888</v>
+        <v>69.796557120500793</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1">
-        <v>1.4752121125436557E-2</v>
+        <v>0.34101372363999516</v>
       </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1">
-        <v>18.600000000000001</v>
+        <v>31</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1">
-        <v>27.1</v>
+        <v>80.5</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1">
-        <v>0.18196389448212325</v>
+        <v>0.56925062529570425</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+      <c r="A7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>59.5</v>
+        <v>71.2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
-        <v>47.6</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
-        <v>11.899999999999999</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
-        <v>18.7</v>
+        <v>70.2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U7" s="1">
-        <v>1.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W7" s="1">
-        <v>79.465776293823026</v>
+        <v>94.172185430463571</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y7" s="1">
-        <v>77.593360995850617</v>
+        <v>97.783933518005554</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA7" s="1">
-        <v>80.726256983240219</v>
+        <v>15.151515151514932</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="1">
-        <v>12.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE7" s="1">
-        <v>5.4</v>
+        <v>1.6000000000000005</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG7" s="1">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI7" s="1">
-        <v>39.285714285714285</v>
+        <v>98.734177215189888</v>
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
-        <v>0.58253495503613351</v>
+        <v>1.4752121125436557E-2</v>
       </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1">
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1">
-        <v>73.900000000000006</v>
+        <v>27.1</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1">
-        <v>0.65068430937299981</v>
+        <v>0.18196389448212325</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
+      <c r="A8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>60.7</v>
+        <v>59.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
-        <v>45.8</v>
+        <v>47.6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
-        <v>14.900000000000006</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1">
-        <v>8.9</v>
+        <v>18.7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M8" s="1">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1">
-        <v>28.6</v>
+        <v>15.9</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S8" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U8" s="1">
-        <v>0.29999999999999716</v>
+        <v>1.6000000000000014</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W8" s="1">
-        <v>80.492091388400695</v>
+        <v>79.465776293823026</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y8" s="1">
-        <v>56.962025316455687</v>
+        <v>77.593360995850617</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="1">
-        <v>89.537712895377126</v>
+        <v>80.726256983240219</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC8" s="1">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE8" s="1">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG8" s="1">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI8" s="1">
-        <v>62.445414847161587</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
-        <v>0.41006537867876136</v>
+        <v>0.58253495503613351</v>
       </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1">
-        <v>22.1</v>
+        <v>19</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1">
-        <v>70.3</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1">
-        <v>0.53807590888945678</v>
+        <v>0.65068430937299981</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>54.6</v>
+        <v>60.7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>43.9</v>
+        <v>45.8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1">
-        <v>10.700000000000003</v>
+        <v>14.900000000000006</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1">
-        <v>35.299999999999997</v>
+        <v>8.9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1">
         <v>0.1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O9" s="1">
-        <v>1.8</v>
+        <v>28.6</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S9" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U9" s="1">
-        <v>1.5</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W9" s="1">
-        <v>75.951557093425606</v>
+        <v>80.492091388400695</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y9" s="1">
-        <v>82.325581395348834</v>
+        <v>56.962025316455687</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA9" s="1">
-        <v>57.432432432432442</v>
+        <v>89.537712895377126</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC9" s="1">
-        <v>13.9</v>
+        <v>11.1</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE9" s="1">
-        <v>7.6000000000000005</v>
+        <v>6.8</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG9" s="1">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI9" s="1">
-        <v>80.410022779043274</v>
+        <v>62.445414847161587</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
-        <v>0.22602969609722989</v>
+        <v>0.41006537867876136</v>
       </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1">
-        <v>20.7</v>
+        <v>22.1</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1">
-        <v>50</v>
+        <v>70.3</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1">
-        <v>0.40990240749542134</v>
+        <v>0.53807590888945678</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
+      <c r="A10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>54.6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43.9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10.700000000000003</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="I10" s="1">
+        <v>35.299999999999997</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.7</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.8</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.4</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.5</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="W10" s="1">
+        <v>75.951557093425606</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>82.325581395348834</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>57.432432432432442</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>13.9</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>7.6000000000000005</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>6.3</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>80.410022779043274</v>
       </c>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
+      <c r="AK10" s="1">
+        <v>0.22602969609722989</v>
+      </c>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
+      <c r="AM10" s="1">
+        <v>20.7</v>
+      </c>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
+      <c r="AO10" s="1">
+        <v>50</v>
+      </c>
       <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
+      <c r="AQ10" s="1">
+        <v>0.40990240749542134</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
+      <c r="A11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1">
-        <v>66.8</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1">
-        <v>60.8</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="1">
-        <v>47.6</v>
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.9</v>
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2.6</v>
+        <v>29</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2.2999999999999998</v>
+        <v>29</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.4</v>
+        <v>29</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="1">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="1">
-        <v>87.988422575976841</v>
+        <v>29</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>90.823970037453179</v>
+        <v>29</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>78.343949044585983</v>
+        <v>29</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>8.3000000000000007</v>
+        <v>29</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>4.9000000000000004</v>
+        <v>29</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>3.4</v>
+        <v>29</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>78.289473684210535</v>
+        <v>29</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1">
-        <v>0.2513941522294586</v>
-      </c>
+      <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="1">
-        <v>30.7</v>
-      </c>
+      <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1">
-        <v>83.5</v>
-      </c>
+      <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="1">
-        <v>0.52427401605064228</v>
-      </c>
+      <c r="AQ11" s="1"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
+      <c r="A12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>71.3</v>
+        <v>66.8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
-        <v>59.7</v>
+        <v>60.8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1">
-        <v>11.599999999999994</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1">
-        <v>18.600000000000001</v>
+        <v>47.6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O12" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="1">
+        <v>87.988422575976841</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>90.823970037453179</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>78.343949044585983</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="1">
         <v>3.4</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>23.3</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1.1000000000000085</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="1">
-        <v>88.183161004431312</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>73.461538461538467</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>97.362110311750598</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="AH12" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI12" s="1">
-        <v>39.028475711892796</v>
+        <v>78.289473684210535</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
-        <v>0.58863708790188229</v>
+        <v>0.2513941522294586</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1">
-        <v>18.3</v>
+        <v>30.7</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1">
-        <v>-84.1</v>
+        <v>83.5</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1">
-        <v>0.69174927586148283</v>
+        <v>0.52427401605064228</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
+      <c r="A13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>72.400000000000006</v>
+        <v>71.3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
-        <v>66</v>
+        <v>59.7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
-        <v>6.4000000000000057</v>
+        <v>11.599999999999994</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1">
-        <v>52.4</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M13" s="1">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O13" s="1">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.8</v>
+        <v>23.3</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S13" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.1000000000000085</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="1">
+        <v>88.183161004431312</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>73.461538461538467</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>97.362110311750598</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0.10000000000000853</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="1">
-        <v>88.590604026845639</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>90.862068965517238</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>80.606060606060609</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>3.2</v>
-      </c>
       <c r="AH13" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI13" s="1">
-        <v>79.393939393939391</v>
+        <v>39.028475711892796</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
-        <v>0.23313772607549899</v>
+        <v>0.58863708790188229</v>
       </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1">
-        <v>23.2</v>
+        <v>18.3</v>
       </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1">
-        <v>72.2</v>
+        <v>-84.1</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1">
-        <v>0.51822168818185366</v>
+        <v>0.69174927586148283</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
+      <c r="A14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
         <v>66</v>
       </c>
-      <c r="C14" s="1">
-        <v>61.1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1">
         <v>52.4</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8.7000000000000028</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="1">
-        <v>24.9</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M14" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O14" s="1">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.1</v>
+        <v>7.8</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U14" s="1">
-        <v>2.5</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W14" s="1">
-        <v>83.839999999999989</v>
+        <v>88.590604026845639</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y14" s="1">
-        <v>82.178217821782184</v>
+        <v>90.862068965517238</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA14" s="1">
-        <v>85.403726708074529</v>
+        <v>80.606060606060609</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC14" s="1">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE14" s="1">
-        <v>5.3999999999999995</v>
+        <v>5.3</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG14" s="1">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI14" s="1">
-        <v>47.519083969465647</v>
+        <v>79.393939393939391</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
-        <v>0.45973825101616805</v>
+        <v>0.23313772607549899</v>
       </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1">
-        <v>28.4</v>
+        <v>23.2</v>
       </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1">
-        <v>-83.1</v>
+        <v>72.2</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1">
-        <v>0.63799055331271259</v>
+        <v>0.51822168818185366</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
+      <c r="A15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>53.3</v>
+        <v>52.4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
-        <v>8.9000000000000057</v>
+        <v>8.7000000000000028</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1">
-        <v>40.799999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M15" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O15" s="1">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.5</v>
+        <v>21.1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S15" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U15" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W15" s="1">
-        <v>83.151326053042126</v>
+        <v>83.839999999999989</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y15" s="1">
-        <v>87.2340425531915</v>
+        <v>82.178217821782184</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA15" s="1">
-        <v>71.929824561403507</v>
+        <v>85.403726708074529</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC15" s="1">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE15" s="1">
-        <v>6.0000000000000009</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG15" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI15" s="1">
-        <v>76.54784240150093</v>
+        <v>47.519083969465647</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
-        <v>0.26252493727844672</v>
+        <v>0.45973825101616805</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1">
-        <v>71.8</v>
+        <v>-83.1</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1">
-        <v>0.49112279921099561</v>
+        <v>0.63799055331271259</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
+      <c r="A16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>72.900000000000006</v>
+        <v>62.2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
-        <v>61.3</v>
+        <v>53.3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <v>11.600000000000009</v>
+        <v>8.9000000000000057</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I16" s="1">
-        <v>36.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M16" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O16" s="1">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.9</v>
+        <v>7.5</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S16" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U16" s="1">
-        <v>0.90000000000000568</v>
+        <v>0.5</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W16" s="1">
-        <v>89.098837209302332</v>
+        <v>83.151326053042126</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y16" s="1">
-        <v>90.556900726392257</v>
+        <v>87.2340425531915</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA16" s="1">
-        <v>86.909090909090907</v>
+        <v>71.929824561403507</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC16" s="1">
-        <v>7.5</v>
+        <v>10.8</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE16" s="1">
-        <v>3.9</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG16" s="1">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI16" s="1">
-        <v>59.216965742251226</v>
+        <v>76.54784240150093</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1">
-        <v>0.43260572748196169</v>
+        <v>0.26252493727844672</v>
       </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1">
-        <v>26.9</v>
+        <v>28.8</v>
       </c>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1">
-        <v>68.2</v>
+        <v>71.8</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1">
-        <v>0.62804308759581373</v>
+        <v>0.49112279921099561</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
+      <c r="A17" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>74.099999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1">
-        <v>64</v>
+        <v>61.3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
-        <v>10.099999999999994</v>
+        <v>11.600000000000009</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
-        <v>40.200000000000003</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1">
-        <v>3.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M17" s="1">
-        <v>1.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O17" s="1">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S17" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U17" s="1">
-        <v>0.29999999999999005</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W17" s="1">
-        <v>89.260808926080898</v>
+        <v>89.098837209302332</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y17" s="1">
-        <v>89.549180327868854</v>
+        <v>90.556900726392257</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA17" s="1">
-        <v>88.646288209606979</v>
+        <v>86.909090909090907</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC17" s="1">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE17" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG17" s="1">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI17" s="1">
-        <v>62.812500000000007</v>
+        <v>59.216965742251226</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
-        <v>0.38083583936689291</v>
+        <v>0.43260572748196169</v>
       </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1">
-        <v>19.5</v>
+        <v>26.9</v>
       </c>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1">
-        <v>57.1</v>
+        <v>68.2</v>
       </c>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1">
-        <v>0.60340005073394876</v>
+        <v>0.62804308759581373</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
+      <c r="A18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>60</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1">
-        <v>52.1</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1">
-        <v>7.8999999999999986</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1">
-        <v>20.9</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M18" s="1">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O18" s="1">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.7</v>
+        <v>17.3</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S18" s="1">
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U18" s="1">
-        <v>0.90000000000000568</v>
+        <v>0.29999999999999005</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W18" s="1">
-        <v>86.115702479338836</v>
+        <v>89.260808926080898</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y18" s="1">
-        <v>83.137254901960773</v>
+        <v>89.549180327868854</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA18" s="1">
-        <v>88.285714285714292</v>
+        <v>88.646288209606979</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC18" s="1">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE18" s="1">
-        <v>4.3000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG18" s="1">
-        <v>4.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI18" s="1">
-        <v>40.115163147792707</v>
+        <v>62.812500000000007</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
-        <v>0.6304181239228499</v>
+        <v>0.38083583936689291</v>
       </c>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1">
-        <v>10.9</v>
+        <v>19.5</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1">
-        <v>61.5</v>
+        <v>57.1</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1">
-        <v>0.72388126194797353</v>
+        <v>0.60340005073394876</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
+      <c r="A19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>60.4</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1">
-        <v>48.9</v>
+        <v>52.1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1">
-        <v>11.5</v>
+        <v>7.8999999999999986</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
-        <v>37.4</v>
+        <v>20.9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M19" s="1">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O19" s="1">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.5</v>
+        <v>11.7</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S19" s="1">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U19" s="1">
-        <v>2.5999999999999943</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W19" s="1">
-        <v>80.826446280991732</v>
+        <v>86.115702479338836</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y19" s="1">
-        <v>84.684684684684683</v>
+        <v>83.137254901960773</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA19" s="1">
-        <v>70.186335403726702</v>
+        <v>88.285714285714292</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC19" s="1">
-        <v>11.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE19" s="1">
-        <v>6.8</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG19" s="1">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI19" s="1">
-        <v>76.482617586912056</v>
+        <v>40.115163147792707</v>
       </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
-        <v>0.27120665222852747</v>
+        <v>0.6304181239228499</v>
       </c>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1">
-        <v>29.5</v>
+        <v>10.9</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1">
-        <v>50.6</v>
+        <v>61.5</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1">
-        <v>0.46709619903136046</v>
+        <v>0.72388126194797353</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
+      <c r="A20" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>68.2</v>
+        <v>60.4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1">
-        <v>67.7</v>
+        <v>48.9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="1">
         <v>0.5</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="1">
-        <v>58.9</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.4</v>
-      </c>
       <c r="T20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U20" s="1">
-        <v>0.89999999999999147</v>
+        <v>2.5999999999999943</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W20" s="1">
-        <v>91.983695652173907</v>
+        <v>80.826446280991732</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y20" s="1">
-        <v>95.928338762214977</v>
+        <v>84.684684684684683</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA20" s="1">
-        <v>72.131147540983605</v>
+        <v>70.186335403726702</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC20" s="1">
-        <v>5.9</v>
+        <v>11.6</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE20" s="1">
-        <v>2.5000000000000004</v>
+        <v>6.8</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG20" s="1">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI20" s="1">
-        <v>87.001477104874439</v>
+        <v>76.482617586912056</v>
       </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
-        <v>0.15057992844831181</v>
+        <v>0.27120665222852747</v>
       </c>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1">
-        <v>35.200000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1">
-        <v>68.7</v>
+        <v>50.6</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1">
-        <v>0.50612367460535079</v>
+        <v>0.46709619903136046</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
+      <c r="A21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>60.1</v>
+        <v>68.2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
-        <v>54.8</v>
+        <v>67.7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1">
-        <v>5.3000000000000043</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I21" s="1">
-        <v>49.4</v>
+        <v>58.9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M21" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O21" s="1">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="1">
         <v>2.9</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U21" s="1">
-        <v>0.60000000000000142</v>
+        <v>0.89999999999999147</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W21" s="1">
-        <v>82.035928143712582</v>
+        <v>91.983695652173907</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y21" s="1">
-        <v>90.493601462522847</v>
+        <v>95.928338762214977</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA21" s="1">
-        <v>43.801652892561982</v>
+        <v>72.131147540983605</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC21" s="1">
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE21" s="1">
-        <v>5.2</v>
+        <v>2.5000000000000004</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG21" s="1">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI21" s="1">
-        <v>90.145985401459853</v>
+        <v>87.001477104874439</v>
       </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1">
-        <v>0.11359062510026696</v>
+        <v>0.15057992844831181</v>
       </c>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1">
-        <v>16.100000000000001</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1">
-        <v>62.1</v>
+        <v>68.7</v>
       </c>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1">
-        <v>0.34387906802366786</v>
+        <v>0.50612367460535079</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
+      <c r="A22" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>51.5</v>
+        <v>60.1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1">
-        <v>48.5</v>
+        <v>54.8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
+        <v>5.3000000000000043</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I22" s="1">
-        <v>16.8</v>
+        <v>49.4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M22" s="1">
-        <v>7.9</v>
+        <v>1.5</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O22" s="1">
-        <v>6.9</v>
+        <v>0.3</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.1</v>
+        <v>2.9</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S22" s="1">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U22" s="1">
-        <v>1.2999999999999972</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W22" s="1">
-        <v>87.387387387387378</v>
+        <v>82.035928143712582</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y22" s="1">
-        <v>84.313725490196077</v>
+        <v>90.493601462522847</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA22" s="1">
-        <v>89.173789173789174</v>
+        <v>43.801652892561982</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC22" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE22" s="1">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG22" s="1">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI22" s="1">
-        <v>34.639175257731956</v>
+        <v>90.145985401459853</v>
       </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1">
-        <v>0.70279463232713257</v>
+        <v>0.11359062510026696</v>
       </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1">
-        <v>12.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1">
-        <v>57.3</v>
+        <v>62.1</v>
       </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1">
-        <v>0.78729229387165967</v>
+        <v>0.34387906802366786</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
+      <c r="A23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>55.4</v>
+        <v>51.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1">
-        <v>27.1</v>
+        <v>48.5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1">
-        <v>28.299999999999997</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1">
-        <v>18.100000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O23" s="1">
-        <v>0.3</v>
+        <v>6.9</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.2000000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U23" s="1">
-        <v>6.5</v>
+        <v>1.2999999999999972</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W23" s="1">
-        <v>78.097982708933714</v>
+        <v>87.387387387387378</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y23" s="1">
-        <v>87.019230769230774</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA23" s="1">
-        <v>64.748201438848923</v>
+        <v>89.173789173789174</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC23" s="1">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE23" s="1">
-        <v>2.6999999999999993</v>
+        <v>3.2</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG23" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI23" s="1">
-        <v>66.789667896678978</v>
+        <v>34.639175257731956</v>
       </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1">
-        <v>0.34523590394894288</v>
+        <v>0.70279463232713257</v>
       </c>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="AN23" s="1"/>
-      <c r="AO23" s="1" t="s">
-        <v>48</v>
+      <c r="AO23" s="1">
+        <v>57.3</v>
       </c>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1">
-        <v>0.41675001093551289</v>
+        <v>0.78729229387165967</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>71.900000000000006</v>
+        <v>55.4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
-        <v>66.099999999999994</v>
+        <v>27.1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1">
-        <v>5.8000000000000114</v>
+        <v>28.299999999999997</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1">
-        <v>55.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M24" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O24" s="1">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S24" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U24" s="1">
-        <v>1.4999999999999858</v>
+        <v>6.5</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W24" s="1">
-        <v>89.931972789115648</v>
+        <v>78.097982708933714</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y24" s="1">
-        <v>94</v>
+        <v>87.019230769230774</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA24" s="1">
-        <v>71.851851851851833</v>
+        <v>64.748201438848923</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC24" s="1">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE24" s="1">
-        <v>3.6000000000000005</v>
+        <v>2.6999999999999993</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG24" s="1">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI24" s="1">
-        <v>84.266263237518928</v>
+        <v>66.789667896678978</v>
       </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
-        <v>0.18085129672004141</v>
+        <v>0.34523590394894288</v>
       </c>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1">
-        <v>28.7</v>
+        <v>13</v>
       </c>
       <c r="AN24" s="1"/>
-      <c r="AO24" s="1">
-        <v>67.900000000000006</v>
+      <c r="AO24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1">
-        <v>0.46704555936922171</v>
+        <v>0.41675001093551289</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>66.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1">
-        <v>64.7</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1">
-        <v>1.7999999999999972</v>
+        <v>5.8000000000000114</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1">
-        <v>53.3</v>
+        <v>55.7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M25" s="1">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O25" s="1">
         <v>1.7</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S25" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U25" s="1">
-        <v>0.20000000000000284</v>
+        <v>1.4999999999999858</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W25" s="1">
-        <v>87.432432432432435</v>
+        <v>89.931972789115648</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y25" s="1">
-        <v>90.740740740740748</v>
+        <v>94</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA25" s="1">
-        <v>73.972602739726042</v>
+        <v>71.851851851851833</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC25" s="1">
-        <v>9.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE25" s="1">
-        <v>5.5000000000000009</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG25" s="1">
         <v>3.8</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI25" s="1">
-        <v>82.38021638330757</v>
+        <v>84.266263237518928</v>
       </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1">
-        <v>0.19951106930407958</v>
+        <v>0.18085129672004141</v>
       </c>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1">
-        <v>22.1</v>
+        <v>28.7</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1">
-        <v>52.8</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1">
-        <v>0.52032574453625802</v>
+        <v>0.46704555936922171</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>61.2</v>
+        <v>66.5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1">
-        <v>17.5</v>
+        <v>64.7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1">
-        <v>43.7</v>
+        <v>1.7999999999999972</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I26" s="1">
-        <v>3.2</v>
+        <v>53.3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K26" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M26" s="1">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O26" s="1">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="1">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S26" s="1">
         <v>0.2</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U26" s="1">
-        <v>0.30000000000000071</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W26" s="1">
-        <v>59.322033898305079</v>
+        <v>87.432432432432435</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y26" s="1">
-        <v>30.275229357798167</v>
+        <v>90.740740740740748</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA26" s="1">
-        <v>76.344086021505376</v>
+        <v>73.972602739726042</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC26" s="1">
-        <v>12</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE26" s="1">
-        <v>7.6</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG26" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI26" s="1">
-        <v>29.714285714285715</v>
+        <v>82.38021638330757</v>
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1">
-        <v>0.66238934794507398</v>
+        <v>0.19951106930407958</v>
       </c>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1">
-        <v>5.2</v>
+        <v>22.1</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1">
-        <v>45.5</v>
+        <v>52.8</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1">
-        <v>0.36635529010745227</v>
+        <v>0.52032574453625802</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>27.8</v>
+        <v>61.2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1">
-        <v>22.9</v>
+        <v>17.5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1">
-        <v>4.9000000000000021</v>
+        <v>43.7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="1">
         <v>5.2</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="1">
-        <v>8.9</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="1">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S27" s="1">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U27" s="1">
-        <v>0.5</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W27" s="1">
-        <v>44.814090019569477</v>
+        <v>59.322033898305079</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y27" s="1">
-        <v>37.410071942446052</v>
+        <v>30.275229357798167</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA27" s="1">
-        <v>47.58064516129032</v>
+        <v>76.344086021505376</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC27" s="1">
-        <v>28.2</v>
+        <v>12</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE27" s="1">
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG27" s="1">
-        <v>19.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI27" s="1">
-        <v>38.864628820960704</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
-        <v>0.63199404055588859</v>
+        <v>0.66238934794507398</v>
       </c>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1">
-        <v>30.4</v>
+        <v>5.2</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1">
-        <v>68.400000000000006</v>
+        <v>45.5</v>
       </c>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1">
-        <v>0.46609892956834509</v>
+        <v>0.36635529010745227</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>33.5</v>
+        <v>27.8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1">
-        <v>33.200000000000003</v>
+        <v>22.9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1">
-        <v>0.29999999999999716</v>
+        <v>4.9000000000000021</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I28" s="1">
-        <v>12.3</v>
+        <v>5.2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M28" s="1">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O28" s="1">
-        <v>15.2</v>
+        <v>8.9</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S28" s="1">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U28" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W28" s="1">
-        <v>67.342799188640981</v>
+        <v>44.814090019569477</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y28" s="1">
-        <v>72.352941176470594</v>
+        <v>37.410071942446052</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA28" s="1">
-        <v>64.705882352941174</v>
+        <v>47.58064516129032</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC28" s="1">
-        <v>16.100000000000001</v>
+        <v>28.2</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE28" s="1">
-        <v>4.7000000000000011</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG28" s="1">
-        <v>11.4</v>
+        <v>19.5</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI28" s="1">
-        <v>45.783132530120476</v>
+        <v>38.864628820960704</v>
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1">
-        <v>0.4955291336596237</v>
+        <v>0.63199404055588859</v>
       </c>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1">
-        <v>18.5</v>
+        <v>30.4</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1">
-        <v>67.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1">
-        <v>0.61449367432195945</v>
+        <v>0.46609892956834509</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>55.7</v>
+        <v>33.5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>43.8</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1">
-        <v>11.900000000000006</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I29" s="1">
-        <v>14.8</v>
+        <v>12.3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M29" s="1">
-        <v>19.7</v>
+        <v>3.2</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O29" s="1">
-        <v>5.0999999999999996</v>
+        <v>15.2</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="1">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S29" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W29" s="1">
-        <v>82.797731568998117</v>
+        <v>67.342799188640981</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y29" s="1">
-        <v>76.288659793814446</v>
+        <v>72.352941176470594</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA29" s="1">
-        <v>86.567164179104466</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC29" s="1">
-        <v>9.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE29" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7000000000000011</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG29" s="1">
-        <v>4.5</v>
+        <v>11.4</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI29" s="1">
-        <v>44.977168949771688</v>
+        <v>45.783132530120476</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1">
-        <v>0.5268828305862211</v>
+        <v>0.4955291336596237</v>
       </c>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1">
-        <v>10.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1">
-        <v>62.4</v>
+        <v>67.5</v>
       </c>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1">
-        <v>0.6374012633309909</v>
+        <v>0.61449367432195945</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>73.599999999999994</v>
+        <v>55.7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1">
-        <v>49.1</v>
+        <v>43.8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1">
-        <v>24.499999999999993</v>
+        <v>11.900000000000006</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1">
-        <v>28.8</v>
+        <v>14.8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K30" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M30" s="1">
-        <v>2.6</v>
+        <v>19.7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O30" s="1">
-        <v>11</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S30" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U30" s="1">
-        <v>1.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W30" s="1">
-        <v>87.056737588652481</v>
+        <v>82.797731568998117</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y30" s="1">
-        <v>86.350148367952514</v>
+        <v>76.288659793814446</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA30" s="1">
-        <v>88.105726872246706</v>
+        <v>86.567164179104466</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC30" s="1">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE30" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG30" s="1">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI30" s="1">
-        <v>58.655804480651732</v>
+        <v>44.977168949771688</v>
       </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1">
-        <v>0.44407516620294873</v>
+        <v>0.5268828305862211</v>
       </c>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1">
-        <v>26.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1">
-        <v>73.3</v>
+        <v>62.4</v>
       </c>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1">
-        <v>0.55263754452197822</v>
+        <v>0.6374012633309909</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
+      <c r="A31" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>66.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1">
-        <v>64.3</v>
+        <v>49.1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1">
-        <v>2.1000000000000085</v>
+        <v>24.499999999999993</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I31" s="1">
-        <v>58.5</v>
+        <v>28.8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M31" s="1">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O31" s="1">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="1">
-        <v>3.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S31" s="1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U31" s="1">
-        <v>9.9999999999994316E-2</v>
+        <v>1.2999999999999972</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W31" s="1">
-        <v>86.30872483221475</v>
+        <v>87.056737588652481</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y31" s="1">
-        <v>89.176829268292693</v>
+        <v>86.350148367952514</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA31" s="1">
-        <v>65.168539325842687</v>
+        <v>88.105726872246706</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC31" s="1">
-        <v>10.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE31" s="1">
-        <v>7.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG31" s="1">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI31" s="1">
-        <v>90.979782270606535</v>
+        <v>58.655804480651732</v>
       </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
-        <v>0.10418421690207358</v>
+        <v>0.44407516620294873</v>
       </c>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1">
-        <v>29.4</v>
+        <v>26.7</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1">
-        <v>66.5</v>
+        <v>73.3</v>
       </c>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1">
-        <v>0.40830080675579222</v>
+        <v>0.55263754452197822</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
+      <c r="A32" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
-        <v>65.400000000000006</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1">
-        <v>51.1</v>
+        <v>64.3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1">
-        <v>14.300000000000004</v>
+        <v>2.1000000000000085</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I32" s="1">
-        <v>25.6</v>
+        <v>58.5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="1">
         <v>0.4</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1.7</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="1">
-        <v>19.7</v>
+        <v>3.1</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S32" s="1">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U32" s="1">
-        <v>0.40000000000000568</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W32" s="1">
-        <v>82.954545454545453</v>
+        <v>86.30872483221475</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y32" s="1">
-        <v>79.754601226993856</v>
+        <v>89.176829268292693</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA32" s="1">
-        <v>86.551724137931046</v>
+        <v>65.168539325842687</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC32" s="1">
-        <v>10.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE32" s="1">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG32" s="1">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI32" s="1">
-        <v>50.097847358121328</v>
+        <v>90.979782270606535</v>
       </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1">
-        <v>0.44723256943601608</v>
+        <v>0.10418421690207358</v>
       </c>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1">
-        <v>21.3</v>
+        <v>29.4</v>
       </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1">
-        <v>77.900000000000006</v>
+        <v>66.5</v>
       </c>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1">
-        <v>0.59544688643547417</v>
+        <v>0.40830080675579222</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>58</v>
+      <c r="A33" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>71.7</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1">
-        <v>61.8</v>
+        <v>51.1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>9.9000000000000057</v>
+        <v>14.300000000000004</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I33" s="1">
-        <v>44.5</v>
+        <v>25.6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K33" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M33" s="1">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O33" s="1">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="1">
-        <v>11.4</v>
+        <v>19.7</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S33" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U33" s="1">
-        <v>0.60000000000000142</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W33" s="1">
-        <v>88.793103448275872</v>
+        <v>82.954545454545453</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y33" s="1">
-        <v>92.181069958847743</v>
+        <v>79.754601226993856</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA33" s="1">
-        <v>80.952380952380949</v>
+        <v>86.551724137931046</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC33" s="1">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE33" s="1">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG33" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI33" s="1">
-        <v>72.006472491909392</v>
+        <v>50.097847358121328</v>
       </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1">
-        <v>0.30610252895882317</v>
+        <v>0.44723256943601608</v>
       </c>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1">
-        <v>24.4</v>
+        <v>21.3</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1">
-        <v>60.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1">
-        <v>0.55123650229880816</v>
+        <v>0.59544688643547417</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>59</v>
+      <c r="A34" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>77.3</v>
+        <v>71.7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1">
         <v>61.8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G34" s="1">
-        <v>15.5</v>
+        <v>9.9000000000000057</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I34" s="1">
-        <v>14.6</v>
+        <v>44.5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K34" s="1">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M34" s="1">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O34" s="1">
-        <v>23.4</v>
+        <v>3</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="1">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S34" s="1">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U34" s="1">
-        <v>2.5999999999999943</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W34" s="1">
-        <v>88.285714285714278</v>
+        <v>88.793103448275872</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y34" s="1">
-        <v>76.339285714285722</v>
+        <v>92.181069958847743</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA34" s="1">
-        <v>93.907563025210081</v>
+        <v>80.952380952380949</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC34" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE34" s="1">
-        <v>5.2999999999999989</v>
+        <v>3.8</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG34" s="1">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AH34" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI34" s="1">
-        <v>37.864077669902912</v>
+        <v>72.006472491909392</v>
       </c>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1">
-        <v>0.66869022593256378</v>
+        <v>0.30610252895882317</v>
       </c>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1">
-        <v>20.7</v>
+        <v>24.4</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1">
-        <v>59.7</v>
+        <v>60.9</v>
       </c>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1">
-        <v>0.71270495798767142</v>
+        <v>0.55123650229880816</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
+      <c r="A35" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>69.5</v>
+        <v>77.3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1">
-        <v>66.8</v>
+        <v>61.8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1">
-        <v>2.7000000000000028</v>
+        <v>15.5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I35" s="1">
-        <v>59.9</v>
+        <v>14.6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M35" s="1">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O35" s="1">
-        <v>0.3</v>
+        <v>23.4</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q35" s="1">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S35" s="1">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U35" s="1">
-        <v>0.29999999999999716</v>
+        <v>2.5999999999999943</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W35" s="1">
-        <v>90.637720488466741</v>
+        <v>88.285714285714278</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y35" s="1">
-        <v>93.603744149766001</v>
+        <v>76.339285714285722</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA35" s="1">
-        <v>70.833333333333343</v>
+        <v>93.907563025210081</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC35" s="1">
-        <v>6.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE35" s="1">
-        <v>4.1000000000000005</v>
+        <v>5.2999999999999989</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG35" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AH35" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI35" s="1">
-        <v>89.670658682634723</v>
+        <v>37.864077669902912</v>
       </c>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1">
-        <v>0.11815249657170779</v>
+        <v>0.66869022593256378</v>
       </c>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1">
-        <v>29.5</v>
+        <v>20.7</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1">
-        <v>82.3</v>
+        <v>59.7</v>
       </c>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1">
-        <v>0.4358333753546601</v>
+        <v>0.71270495798767142</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
+      <c r="A36" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
-        <v>67.599999999999994</v>
+        <v>69.5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0999999999999943</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I36" s="1">
-        <v>62.2</v>
+        <v>59.9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K36" s="1">
-        <v>2.2999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M36" s="1">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O36" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S36" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U36" s="1">
-        <v>0.70000000000000284</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W36" s="1">
-        <v>91.597796143250704</v>
+        <v>90.637720488466741</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y36" s="1">
-        <v>94.85294117647058</v>
+        <v>93.603744149766001</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA36" s="1">
-        <v>43.478260869565176</v>
+        <v>70.833333333333343</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE36" s="1">
-        <v>3.4999999999999996</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG36" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI36" s="1">
-        <v>93.53383458646617</v>
+        <v>89.670658682634723</v>
       </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1">
-        <v>7.4975267445804628E-2</v>
+        <v>0.11815249657170779</v>
       </c>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1">
-        <v>16.899999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1">
-        <v>47.2</v>
+        <v>82.3</v>
       </c>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1">
-        <v>0.33525806562259647</v>
+        <v>0.4358333753546601</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>62</v>
+      <c r="A37" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>68.900000000000006</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1">
-        <v>47.4</v>
+        <v>66.5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1">
-        <v>21.500000000000007</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I37" s="1">
-        <v>9.1</v>
+        <v>62.2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M37" s="1">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O37" s="1">
-        <v>32.6</v>
+        <v>0.5</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W37" s="1">
+        <v>91.597796143250704</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>94.85294117647058</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>43.478260869565176</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG37" s="1">
         <v>2.6</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U37" s="1">
-        <v>2.2000000000000028</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W37" s="1">
-        <v>83.157894736842096</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>58.333333333333336</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>92.512077294685994</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>3.1</v>
-      </c>
       <c r="AH37" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI37" s="1">
-        <v>68.776371308016877</v>
+        <v>93.53383458646617</v>
       </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1">
-        <v>0.34087456165359131</v>
+        <v>7.4975267445804628E-2</v>
       </c>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1">
-        <v>10.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1">
-        <v>42.5</v>
+        <v>47.2</v>
       </c>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1">
-        <v>0.49916227046870493</v>
+        <v>0.33525806562259647</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>63</v>
+      <c r="A38" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
-        <v>60.8</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1">
-        <v>43.2</v>
+        <v>47.4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1">
-        <v>17.599999999999994</v>
+        <v>21.500000000000007</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I38" s="1">
-        <v>18</v>
+        <v>9.1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M38" s="1">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O38" s="1">
-        <v>4.5</v>
+        <v>32.6</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="1">
-        <v>16.600000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S38" s="1">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U38" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W38" s="1">
-        <v>75.52447552447552</v>
+        <v>83.157894736842096</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y38" s="1">
-        <v>67.286245353159842</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA38" s="1">
-        <v>82.838283828382842</v>
+        <v>92.512077294685994</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC38" s="1">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE38" s="1">
-        <v>8.8000000000000007</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG38" s="1">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI38" s="1">
-        <v>41.666666666666664</v>
+        <v>68.776371308016877</v>
       </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1">
-        <v>0.52653123858230222</v>
+        <v>0.34087456165359131</v>
       </c>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1">
-        <v>25.6</v>
+        <v>10.3</v>
       </c>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1">
-        <v>70.400000000000006</v>
+        <v>42.5</v>
       </c>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1">
-        <v>0.57142475785790658</v>
+        <v>0.49916227046870493</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>64</v>
+      <c r="A39" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1">
-        <v>69.5</v>
+        <v>60.8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1">
-        <v>57.1</v>
+        <v>43.2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1">
-        <v>12.399999999999999</v>
+        <v>17.599999999999994</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I39" s="1">
-        <v>29.8</v>
+        <v>18</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K39" s="1">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M39" s="1">
         <v>1.3</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O39" s="1">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="1">
-        <v>21</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S39" s="1">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U39" s="1">
-        <v>1.1000000000000014</v>
+        <v>1.5</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W39" s="1">
-        <v>85.223880597014926</v>
+        <v>75.52447552447552</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y39" s="1">
-        <v>82.972972972972968</v>
+        <v>67.286245353159842</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA39" s="1">
-        <v>88</v>
+        <v>82.838283828382842</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC39" s="1">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE39" s="1">
-        <v>6.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG39" s="1">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI39" s="1">
-        <v>52.189141856392297</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1">
-        <v>0.44065247893806414</v>
+        <v>0.52653123858230222</v>
       </c>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1">
-        <v>20.100000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1">
-        <v>60.3</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1">
-        <v>0.61574498342572748</v>
+        <v>0.57142475785790658</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
+      <c r="A40" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1">
-        <v>73</v>
+        <v>69.5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1">
-        <v>60.6</v>
+        <v>57.1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G40" s="1">
         <v>12.399999999999999</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I40" s="1">
-        <v>30.5</v>
+        <v>29.8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K40" s="1">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M40" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O40" s="1">
-        <v>20.399999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q40" s="1">
-        <v>5.6</v>
+        <v>21</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="S40" s="1">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
+        <v>1.1000000000000014</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="W40" s="1">
-        <v>88.596491228070178</v>
+        <v>85.223880597014926</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Y40" s="1">
-        <v>87.428571428571431</v>
+        <v>82.972972972972968</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AA40" s="1">
-        <v>89.820359281437135</v>
+        <v>88</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AC40" s="1">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AE40" s="1">
-        <v>4.4000000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AG40" s="1">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="AI40" s="1">
-        <v>50.330033003300336</v>
+        <v>52.189141856392297</v>
       </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1">
-        <v>0.47732211573262573</v>
+        <v>0.44065247893806414</v>
       </c>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1">
-        <v>18.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AN40" s="1"/>
       <c r="AO40" s="1">
-        <v>53.4</v>
+        <v>60.3</v>
       </c>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1">
+        <v>0.61574498342572748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="1">
+        <v>12.399999999999999</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W41" s="1">
+        <v>88.596491228070178</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>87.428571428571431</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>89.820359281437135</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>50.330033003300336</v>
+      </c>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1">
+        <v>0.47732211573262573</v>
+      </c>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1">
         <v>0.65397018202909241</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
+  <mergeCells count="28">
+    <mergeCell ref="B1:AQ1"/>
     <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fppe_data_rural.xlsx
+++ b/data/fppe_data_rural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C285AE-6DD0-B84D-B933-1780FC5C4AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208FBAB9-3EC2-5140-8EAA-4B39E02A53E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{05FC8BEC-FF03-A74A-8B8A-09EA8FD10930}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{05FC8BEC-FF03-A74A-8B8A-09EA8FD10930}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>Andaman &amp; Nicobar Islands</t>
-  </si>
-  <si>
     <t>Andhra Pradesh</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>Dadra &amp; Nagar Haveli and Daman &amp; Diu</t>
-  </si>
-  <si>
     <t>Goa</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>Himachal Pradesh</t>
   </si>
   <si>
-    <t>Jammu &amp; Kashmir</t>
-  </si>
-  <si>
     <t>Jharkhand</t>
   </si>
   <si>
@@ -240,6 +231,15 @@
   </si>
   <si>
     <t>Haryana</t>
+  </si>
+  <si>
+    <t>Dadra &amp; Nagar Haveli &amp; Daman &amp; Diu</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar</t>
   </si>
 </sst>
 </file>
@@ -306,14 +306,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,194 +638,194 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6" t="s">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6" t="s">
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6" t="s">
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="6"/>
+      <c r="AQ2" s="5"/>
     </row>
     <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="s">
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4" t="s">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="s">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4" t="s">
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4" t="s">
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4" t="s">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4" t="s">
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4" t="s">
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AQ3" s="4"/>
+      <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>29</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>29</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>29</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>29</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>29</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>29</v>
@@ -5501,13 +5501,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -5519,16 +5522,13 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
